--- a/docs/Excel_Template/DOMINATOR_Blank_Template.xlsx
+++ b/docs/Excel_Template/DOMINATOR_Blank_Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Hárok1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="RFID Domination Timer Template" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,34 +11,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>RED tím</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">RED team 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>(2 teams firmware)</t>
+    </r>
   </si>
   <si>
-    <t>GRE tím</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">GRE team 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>(2 teams firmware)</t>
+    </r>
   </si>
   <si>
-    <t>Referee (Rozhodca)</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">YEL team 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>(3 teams firmware)</t>
+    </r>
   </si>
   <si>
-    <t>Eraser</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">BLU team 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>(4 teams firmware)</t>
+    </r>
   </si>
   <si>
+    <t xml:space="preserve">Referee
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eraser
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>Autor:</t>
+      <t>Author:</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> Bc. Martin Chlebovec (martinius96@gmail.com)</t>
+      <t xml:space="preserve"> Martin Chlebovec (martinius96@gmail.com)</t>
     </r>
   </si>
   <si>
@@ -46,7 +118,7 @@
       <rPr>
         <b/>
       </rPr>
-      <t>Projekt:</t>
+      <t>Project:</t>
     </r>
     <r>
       <rPr/>
@@ -57,7 +129,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://martinius96.github.io/Airsoft-DOMINATOR-RFID/</t>
+      <t>https://martinius96.github.io/Airsoft-DOMINATOR-RFID/en/</t>
     </r>
   </si>
 </sst>
@@ -65,36 +137,42 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <color rgb="FF000000"/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FFF1C232"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +201,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3C78D8"/>
         <bgColor rgb="FF3C78D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA64D79"/>
+        <bgColor rgb="FFA64D79"/>
       </patternFill>
     </fill>
     <fill>
@@ -158,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -174,27 +264,49 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -407,14 +519,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.43"/>
-    <col customWidth="1" min="3" max="3" width="19.0"/>
+    <col customWidth="1" min="1" max="1" width="16.5"/>
+    <col customWidth="1" min="2" max="3" width="17.13"/>
+    <col customWidth="1" min="4" max="4" width="17.25"/>
+    <col customWidth="1" min="5" max="5" width="16.88"/>
+    <col customWidth="1" min="6" max="6" width="17.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,103 +546,298 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>123456.0</v>
-      </c>
-      <c r="B2" s="6">
-        <v>987654.0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>333222.0</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1.11122222E8</v>
+      <c r="A2" s="7">
+        <v>4.294946023E9</v>
+      </c>
+      <c r="B2" s="8">
+        <v>4.294941505E9</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4.294941049E9</v>
+      </c>
+      <c r="D2" s="10">
+        <v>27323.0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>4.294939403E9</v>
+      </c>
+      <c r="F2" s="12">
+        <v>4.294940547E9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5">
-        <v>55656.0</v>
-      </c>
-      <c r="B3" s="6">
-        <v>56465.0</v>
-      </c>
-      <c r="C3" s="7">
-        <v>21123.0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>8.7678678E7</v>
+      <c r="A3" s="7">
+        <v>4.294945879E9</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.294943527E9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>32647.0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>31135.0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>4.294946599E9</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4.294943791E9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>2223.0</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="7">
+        <v>4.294940651E9</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4.294942495E9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4.294940093E9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>4.294935061E9</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4.294939091E9</v>
+      </c>
+      <c r="F4" s="13">
+        <v>4.294940787E9</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="A5" s="7">
+        <v>4.294948687E9</v>
+      </c>
+      <c r="B5" s="8">
+        <v>24257.0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4.294940617E9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>4.294947849E9</v>
+      </c>
+      <c r="E5" s="11">
+        <v>4.294935437E9</v>
+      </c>
+      <c r="F5" s="13">
+        <v>28051.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="A6" s="7">
+        <v>4.294938597E9</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.294944711E9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>31793.0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>31447.0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.294947851E9</v>
+      </c>
+      <c r="F6" s="13">
+        <v>26876.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="10"/>
+      <c r="A7" s="7">
+        <v>4.294949063E9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4.294946601E9</v>
+      </c>
+      <c r="C7" s="9">
+        <v>4.294940249E9</v>
+      </c>
+      <c r="D7" s="10">
+        <v>28211.0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4.294946137E9</v>
+      </c>
+      <c r="F7" s="13">
+        <v>22544.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10"/>
+      <c r="A8" s="7">
+        <v>4.294940929E9</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.294942043E9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4.294941285E9</v>
+      </c>
+      <c r="D8" s="10">
+        <v>28835.0</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="10"/>
+      <c r="A9" s="7">
+        <v>4.294944161E9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4.294946083E9</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4.294936533E9</v>
+      </c>
+      <c r="D9" s="10">
+        <v>32663.0</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="7">
+        <v>4.294940443E9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4.294946617E9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4.294944935E9</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4.294947643E9</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
+      <c r="A11" s="7">
+        <v>4.294948047E9</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4.294947255E9</v>
+      </c>
+      <c r="C11" s="9">
+        <v>32107.0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>25225.0</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="15" t="s">
-        <v>5</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A13"/>
+    <hyperlink r:id="rId1" ref="A23"/>
   </hyperlinks>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>